--- a/Proposal/Project time table3.xlsx
+++ b/Proposal/Project time table3.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="25600" windowHeight="14500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="Your Project Name Here" sheetId="1" r:id="rId1"/>
     <sheet name="Comments" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -112,9 +112,6 @@
     <t>Sub-task 3 - Write methodology topic partB</t>
   </si>
   <si>
-    <t>Sub-task 4 - Design the animation and test</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sub-task 5 - Set up the Diagram quiz and Hangman quiz to Moodle test environment </t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Duration (day)</t>
+  </si>
+  <si>
+    <t>Sub-task 4 - Make coordinates tools strongger</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -582,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>11</v>
@@ -675,7 +675,7 @@
         <v>0.6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>11</v>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>11</v>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>11</v>
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>11</v>
@@ -787,7 +787,7 @@
         <v>0.3</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>11</v>
@@ -815,7 +815,7 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>11</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -933,7 +933,7 @@
     </row>
     <row r="14" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B14" s="11">
         <f t="shared" si="5"/>
@@ -961,7 +961,7 @@
     </row>
     <row r="15" spans="1:10" ht="26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="11">
         <f>C13</f>
@@ -989,7 +989,7 @@
     </row>
     <row r="16" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="11">
         <f>C14</f>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="17" spans="1:10" ht="26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="11">
         <f t="shared" si="5"/>

--- a/Proposal/Project time table3.xlsx
+++ b/Proposal/Project time table3.xlsx
@@ -97,27 +97,9 @@
     <t xml:space="preserve">Sub-task 7 -  Add QA document for course </t>
   </si>
   <si>
-    <t>Sub-task 6 -  Write methodology topic partA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sub-task 3 -  Start to implement main functions </t>
   </si>
   <si>
-    <t>Sub-task 1 - Design and make a basic demo</t>
-  </si>
-  <si>
-    <t>Sub-task 2 - Implement the basic function</t>
-  </si>
-  <si>
-    <t>Sub-task 3 - Write methodology topic partB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-task 5 - Set up the Diagram quiz and Hangman quiz to Moodle test environment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-task 6 - Finish the proposal </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sub-task 7 - Test Diagram quiz and Hangman quiz on the Moodle test environment </t>
   </si>
   <si>
@@ -127,7 +109,25 @@
     <t>Duration (day)</t>
   </si>
   <si>
-    <t>Sub-task 4 - Make coordinates tools strongger</t>
+    <t>Sub-task 6 - Write methodology topic partB</t>
+  </si>
+  <si>
+    <t>Sub-task 1 - Write methodology topic partA and Write Half-way Report</t>
+  </si>
+  <si>
+    <t>Sub-task 2 - Design and make a basic demo and Write Half-way Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-task 6 -  Finish and Sign off the proposal </t>
+  </si>
+  <si>
+    <t>Sub-task 3 - Implement the functions of Hangman</t>
+  </si>
+  <si>
+    <t>Sub-task 4 - Make dragging image type for Diagram quiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-task 5 - Implement record score and show the process of getting the missing letters of Hangman. </t>
   </si>
 </sst>
 </file>
@@ -553,8 +553,8 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -582,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -608,10 +608,12 @@
         <v>9</v>
       </c>
       <c r="B2" s="4">
+        <f>B3</f>
         <v>42945</v>
       </c>
       <c r="C2" s="4">
-        <v>42957</v>
+        <f>C9</f>
+        <v>42979</v>
       </c>
       <c r="D2" s="5">
         <f>SUM(D3,D4,D5,D6+D8)</f>
@@ -622,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -647,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>11</v>
@@ -675,7 +677,7 @@
         <v>0.6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>11</v>
@@ -685,7 +687,7 @@
     </row>
     <row r="5" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7">
         <f t="shared" ref="B5:B9" si="1">C4</f>
@@ -703,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>11</v>
@@ -731,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>11</v>
@@ -759,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>11</v>
@@ -769,7 +771,7 @@
     </row>
     <row r="8" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7">
         <f t="shared" si="1"/>
@@ -787,7 +789,7 @@
         <v>0.3</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>11</v>
@@ -815,7 +817,7 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>11</v>
@@ -828,10 +830,12 @@
         <v>12</v>
       </c>
       <c r="B10" s="4">
+        <f>C9</f>
         <v>42979</v>
       </c>
       <c r="C10" s="4">
-        <v>42982</v>
+        <f>C17</f>
+        <v>43020</v>
       </c>
       <c r="D10" s="5">
         <f>SUM(D11,D12,D13,D14,D15,D16)</f>
@@ -842,15 +846,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="11">
         <v>42979</v>
@@ -875,20 +879,20 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" s="11">
         <f>C11</f>
         <v>42981</v>
       </c>
       <c r="C12" s="11">
-        <v>42991</v>
+        <v>42983</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" ref="D12:D16" si="4">_xlfn.DAYS(C12,B12)</f>
-        <v>10</v>
+        <f>_xlfn.DAYS(C12,B12)</f>
+        <v>2</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10">
@@ -905,18 +909,18 @@
     </row>
     <row r="13" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13" s="11">
-        <f t="shared" ref="B13:B17" si="5">C12</f>
-        <v>42991</v>
+        <f t="shared" ref="B13:B17" si="4">C12</f>
+        <v>42983</v>
       </c>
       <c r="C13" s="11">
         <v>42994</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" ref="D13" si="6">_xlfn.DAYS(C13,B13)</f>
-        <v>3</v>
+        <f t="shared" ref="D13" si="5">_xlfn.DAYS(C13,B13)</f>
+        <v>11</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10">
@@ -931,19 +935,19 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>42994</v>
       </c>
       <c r="C14" s="11">
         <v>43005</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D12:D16" si="6">_xlfn.DAYS(C14,B14)</f>
         <v>11</v>
       </c>
       <c r="E14" s="9"/>
@@ -961,7 +965,7 @@
     </row>
     <row r="15" spans="1:10" ht="26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B15" s="11">
         <f>C13</f>
@@ -989,7 +993,7 @@
     </row>
     <row r="16" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="11">
         <f>C14</f>
@@ -999,7 +1003,7 @@
         <v>43007</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E16" s="9"/>
@@ -1017,10 +1021,10 @@
     </row>
     <row r="17" spans="1:10" ht="26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B17" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43007</v>
       </c>
       <c r="C17" s="11">

--- a/Proposal/Project time table3.xlsx
+++ b/Proposal/Project time table3.xlsx
@@ -135,8 +135,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="#,##0%;\-#,##0%"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -241,35 +241,35 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,445 +607,445 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="10">
         <f>B3</f>
         <v>42945</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="10">
         <f>C9</f>
         <v>42979</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>SUM(D3,D4,D5,D6+D8)</f>
         <v>23</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="13">
         <v>42945</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="11">
         <v>42946</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <f>_xlfn.DAYS(C3,B3)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10">
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="13">
         <f>C3</f>
         <v>42946</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="11">
         <v>42948</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <f t="shared" ref="D4:D8" si="0">_xlfn.DAYS(C4,B4)</f>
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
+      <c r="E4" s="6"/>
+      <c r="F4" s="7">
         <v>0.6</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="13">
         <f t="shared" ref="B5:B9" si="1">C4</f>
         <v>42948</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>42958</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
+      <c r="E5" s="6"/>
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="13">
         <f t="shared" si="1"/>
         <v>42958</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>42966</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
+      <c r="E6" s="6"/>
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="13">
         <f t="shared" si="1"/>
         <v>42966</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>42976</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <f t="shared" ref="D7" si="2">_xlfn.DAYS(C7,B7)</f>
         <v>10</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
+      <c r="E7" s="6"/>
+      <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="H7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="13">
         <f t="shared" si="1"/>
         <v>42976</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>42978</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
+      <c r="E8" s="6"/>
+      <c r="F8" s="7">
         <v>0.3</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="H8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="13">
         <f t="shared" si="1"/>
         <v>42978</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <v>42979</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <f t="shared" ref="D9" si="3">_xlfn.DAYS(C9,B9)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
+      <c r="E9" s="6"/>
+      <c r="F9" s="7">
         <v>0.5</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="H9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="10">
         <f>C9</f>
         <v>42979</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="10">
         <f>C17</f>
         <v>43020</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f>SUM(D11,D12,D13,D14,D15,D16)</f>
         <v>42</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6">
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="26" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>42979</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <v>42981</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <f>_xlfn.DAYS(C11,B11)</f>
         <v>2</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
+      <c r="E11" s="6"/>
+      <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="H11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="26" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <f>C11</f>
         <v>42981</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>42983</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <f>_xlfn.DAYS(C12,B12)</f>
         <v>2</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
+      <c r="E12" s="6"/>
+      <c r="F12" s="7">
         <v>0.2</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="H12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <f t="shared" ref="B13:B17" si="4">C12</f>
         <v>42983</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <v>42994</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <f t="shared" ref="D13" si="5">_xlfn.DAYS(C13,B13)</f>
         <v>11</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
+      <c r="E13" s="6"/>
+      <c r="F13" s="7">
         <v>0</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="H13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="26" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <f t="shared" si="4"/>
         <v>42994</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="12">
         <v>43005</v>
       </c>
-      <c r="D14" s="9">
-        <f t="shared" ref="D12:D16" si="6">_xlfn.DAYS(C14,B14)</f>
-        <v>11</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10">
+      <c r="D14" s="6">
+        <f t="shared" ref="D14:D16" si="6">_xlfn.DAYS(C14,B14)</f>
+        <v>11</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7">
         <v>0.1</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="H14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="26" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <f>C13</f>
         <v>42994</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <v>43008</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <f t="shared" ref="D15" si="7">_xlfn.DAYS(C15,B15)</f>
         <v>14</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10">
+      <c r="E15" s="6"/>
+      <c r="F15" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="H15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <f>C14</f>
         <v>43005</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="12">
         <v>43007</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10">
+      <c r="E16" s="6"/>
+      <c r="F16" s="7">
         <v>0</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="H16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="26" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="12">
         <f t="shared" si="4"/>
         <v>43007</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="12">
         <v>43020</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="6">
         <f t="shared" ref="D17" si="8">_xlfn.DAYS(C17,B17)</f>
         <v>13</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10">
+      <c r="E17" s="6"/>
+      <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="H17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
